--- a/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.13</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.04</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.13</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005823</t>
+          <t>002934</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康颐享混合A</t>
+          <t>泰康恒泰回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.26</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005824</t>
+          <t>005823</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康颐享混合C</t>
+          <t>泰康颐享混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>27.26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519007</t>
+          <t>005824</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海富通强化回报混合</t>
+          <t>泰康颐享混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -678,25 +748,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002934</t>
+          <t>002935</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
+          <t>泰康恒泰回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>27.77</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.84</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002935</t>
+          <t>519007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
+          <t>海富通强化回报混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.77</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,134 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -952,4 +953,436 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1385,4 +1386,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1394,7 +1395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1405,17 +1406,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1425,14 +1446,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1441,14 +1484,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1457,14 +1522,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.43</v>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1473,13 +1560,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1831,7 +1832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1842,17 +1843,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1862,14 +1883,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9945</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1878,14 +1921,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4370</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1894,14 +1959,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1</v>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1910,14 +1997,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.43</v>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1926,13 +2035,775 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2686,7 +2687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2697,17 +2698,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2717,14 +2738,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.6</v>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2733,14 +2776,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -2749,14 +2814,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -2765,14 +2936,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -2781,14 +2952,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -2797,13 +2968,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009217</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1561</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009218</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1561</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,22 +656,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002934</t>
+          <t>006102</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
+          <t>浙商丰利增强债券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>68.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27.77</t>
+          <t>48.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -665,11 +681,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1225</t>
+          <t>1.2624</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -678,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005823</t>
+          <t>006061</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康颐享混合A</t>
+          <t>红土创新增强收益债券A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27.26</t>
+          <t>21.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1207</t>
+          <t>0.0145</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -716,112 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005824</t>
+          <t>006064</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康颐享混合C</t>
+          <t>红土创新增强收益债券C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27.26</t>
+          <t>21.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0622</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002935</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>27.77</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0613</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519007</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>海富通强化回报混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>34.36</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,7 +796,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -886,36 +826,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>006102</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>浙商丰利增强债券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>48.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>68.27</t>
+          <t>47.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1038</t>
+          <t>0.9945</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -924,34 +864,758 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4370</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>010150</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>南方君信灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>68.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1650,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1016,36 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005123</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合A</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>67.36</t>
+          <t>73.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1542</t>
+          <t>0.1218</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1054,36 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.47</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1123</t>
+          <t>0.0948</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1092,36 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>61.26</t>
+          <t>90.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0729</t>
+          <t>0.0712</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1130,36 +1794,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007423</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合A</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>56.10</t>
+          <t>30.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1168,36 +1832,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007424</t>
+          <t>009077</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合C</t>
+          <t>红土创新稳进混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>56.10</t>
+          <t>30.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1206,36 +1870,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011098</t>
+          <t>005055</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>61.26</t>
+          <t>90.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1244,36 +1908,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006587</t>
+          <t>004135</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合C</t>
+          <t>申万菱信量化成长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67.36</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1282,36 +1946,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011084</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合A</t>
+          <t>南方君信灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>73.50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1320,34 +1984,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010150</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合C</t>
+          <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>70.47</t>
+          <t>90.58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1356,31 +2022,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011085</t>
+          <t>006532</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>90.52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -1418,7 +2086,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1448,36 +2116,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>005123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>南方优享分红灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.50</t>
+          <t>67.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1218</t>
+          <t>0.1542</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1486,36 +2154,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>70.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0948</t>
+          <t>0.1123</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1524,36 +2192,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>011097</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>达诚宜创精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>61.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0712</t>
+          <t>0.0729</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1562,36 +2230,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>007423</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>西部利得聚禾灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30.68</t>
+          <t>56.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0255</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1600,36 +2268,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>007424</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>西部利得聚禾灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30.68</t>
+          <t>56.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1638,36 +2306,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005055</t>
+          <t>011098</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+          <t>达诚宜创精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>61.26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0238</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1676,36 +2344,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004135</t>
+          <t>006587</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>申万菱信量化成长混合</t>
+          <t>南方优享分红灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>67.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1714,36 +2382,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010150</t>
+          <t>011084</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合C</t>
+          <t>财通资管新添益6个月持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.50</t>
+          <t>21.05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1752,36 +2420,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>南方君信灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>70.47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1790,33 +2456,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006532</t>
+          <t>011085</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+          <t>财通资管新添益6个月持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>21.05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -1833,7 +2497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1854,7 +2518,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1884,36 +2548,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006102</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商丰利增强债券</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>48.75</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>47.92</t>
+          <t>68.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9945</t>
+          <t>0.1038</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1922,758 +2586,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005535</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰信竞争优选灵活配置混合</t>
+          <t>南方君信灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>68.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4370</t>
-        </is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>290006</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰信蓝筹精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3277</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>630010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商价值精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1523</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005741</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>76.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1450</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000029</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国宏观策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1284</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001364</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成景润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>26.73</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0982</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002383</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成趋势回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>24.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0747</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003373</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成景禄灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>28.91</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0655</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003374</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成景禄灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>28.91</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0330</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003147</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成动态量化配置策略混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>27.36</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0310</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>630006</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华商产业升级混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.95</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0303</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005357</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>87.21</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005953</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>人保转型新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>84.38</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006354</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国泰民裕进取灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>80.18</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>27.06</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002908</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国睿利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>28.52</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005954</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>人保转型新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.38</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>27.06</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010150</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>76.52</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2708,7 +2648,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2738,22 +2678,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006102</t>
+          <t>002934</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商丰利增强债券</t>
+          <t>泰康恒泰回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>68.61</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>48.75</t>
+          <t>27.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2763,11 +2703,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2624</t>
+          <t>0.1225</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2776,36 +2716,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006061</t>
+          <t>005823</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>红土创新增强收益债券A</t>
+          <t>泰康颐享混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.68</t>
+          <t>27.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0145</t>
+          <t>0.1207</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2814,36 +2754,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006064</t>
+          <t>005824</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>红土创新增强收益债券C</t>
+          <t>泰康颐享混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.68</t>
+          <t>27.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2857,144 +2873,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.28</v>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.31</v>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.28</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1616,442 +1765,6 @@
       </c>
       <c r="H22" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005741</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>73.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1218</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519183</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家双引擎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0948</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0712</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>30.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009077</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005055</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004135</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>申万菱信量化成长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010150</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>73.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010246</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006532</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1799,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2116,36 +1829,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005123</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合A</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>67.36</t>
+          <t>73.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1542</t>
+          <t>0.1218</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2154,36 +1867,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.47</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1123</t>
+          <t>0.0948</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2192,36 +1905,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>61.26</t>
+          <t>90.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0729</t>
+          <t>0.0712</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2230,36 +1943,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007423</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合A</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>56.10</t>
+          <t>30.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2268,36 +1981,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007424</t>
+          <t>009077</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合C</t>
+          <t>红土创新稳进混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>56.10</t>
+          <t>30.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2306,36 +2019,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011098</t>
+          <t>005055</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>61.26</t>
+          <t>90.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2344,36 +2057,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006587</t>
+          <t>004135</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合C</t>
+          <t>申万菱信量化成长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67.36</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2382,36 +2095,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011084</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合A</t>
+          <t>南方君信灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>73.50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2420,34 +2133,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010150</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合C</t>
+          <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>70.47</t>
+          <t>90.58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2456,31 +2171,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011085</t>
+          <t>006532</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>90.52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -2492,6 +2209,438 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2621,7 +2770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2867,7 +3016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000672-上峰水泥.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.28</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.6</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0.38</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,166 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -673,36 +822,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010447</t>
+          <t>002288</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮未来成长混合A</t>
+          <t>中银稳进策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0133</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +860,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010448</t>
+          <t>016520</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮未来成长混合C</t>
+          <t>中银稳进策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -749,6 +896,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -918,7 +1197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1765,442 +2044,6 @@
       </c>
       <c r="H22" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005741</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>73.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1218</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519183</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家双引擎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0948</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0712</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009078</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>30.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009077</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005055</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004135</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>申万菱信量化成长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010150</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>73.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010246</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006532</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2235,7 +2078,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2265,36 +2108,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005123</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合A</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>67.36</t>
+          <t>73.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1542</t>
+          <t>0.1218</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2303,36 +2146,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.47</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1123</t>
+          <t>0.0948</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2341,36 +2184,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>61.26</t>
+          <t>90.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0729</t>
+          <t>0.0712</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2379,36 +2222,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007423</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合A</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>56.10</t>
+          <t>30.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2417,36 +2260,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007424</t>
+          <t>009077</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合C</t>
+          <t>红土创新稳进混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>56.10</t>
+          <t>30.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2455,36 +2298,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011098</t>
+          <t>005055</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>61.26</t>
+          <t>90.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2493,36 +2336,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006587</t>
+          <t>004135</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合C</t>
+          <t>申万菱信量化成长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67.36</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2531,36 +2374,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011084</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合A</t>
+          <t>南方君信灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>73.50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2569,34 +2412,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010150</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合C</t>
+          <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>70.47</t>
+          <t>90.58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2605,31 +2450,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011085</t>
+          <t>006532</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>90.52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -2641,6 +2488,438 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2770,7 +3049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3014,136 +3293,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009217</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1561</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009218</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1561</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>